--- a/biology/Botanique/Oxalis/Oxalis.xlsx
+++ b/biology/Botanique/Oxalis/Oxalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Oxalis (en français, les oxalis, terme masculin ou féminin, ou oxalides) regroupe plusieurs espèces de plantes herbacées de la famille des Oxalidacées, vivaces, basses, le plus souvent rampantes. On les reconnaît à leurs feuilles trifoliées, chaque foliole ayant la forme d'un cœur dont la pointe est constituée par le pétiolule.
 En général, les folioles s'ouvrent le jour et se replient pendant la nuit. Les feuilles et les pédoncules floraux ont un goût acidulé caractéristique (il ne faut pas en consommer avec abus, car la plante est considérée comme légèrement toxique en raison de l'acide oxalique qu'elle contient).
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom d'Oxalis vient du grec oxys, « aigu, acide », en référence à la saveur piquante des feuilles comestibles due à l'acide oxalique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom d'Oxalis vient du grec oxys, « aigu, acide », en référence à la saveur piquante des feuilles comestibles due à l'acide oxalique.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acetosella
@@ -586,7 +602,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Oxalis acetosella : oxalis petite oseille ou pain de coucou. Fleurs blanches veinées de mauve. Pousse dans les bois ombragés. Une seule fleur par pédoncule.
 Oxalis corniculata : oxalis corniculée. Petites fleurs jaunes (une ou deux par pédoncule).
@@ -628,9 +646,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (5 avril 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (5 avril 2022) :
 Oxalis abercornensis R. Knuth
 Oxalis acetosella L.
 Oxalis adenodes Sond.
@@ -930,7 +950,7 @@
 Oxalis xiphophylla Baker
 Oxalis zeekoevleyensis R. Knuth
 Oxalis zeyheri Sond.
-Selon NCBI  (5 avril 2022)[3] :
+Selon NCBI  (5 avril 2022) :
 Oxalis adenophylla Acetosella adenophylla (Gillies ex Hook. &amp; Arn.) Kuntze
 Oxalis arbuscula Barneoud
 Oxalis arenaria Bertero
@@ -1052,7 +1072,7 @@
 Oxalis virgosa Molina
 Oxalis wulingensis T.Deng, D.G.Zhang &amp; Z.L.Nie
 Oxalis × vanaelstii Hoste, Meeus &amp; Groom, 2021
-Selon The Plant List            (5 avril 2022)[4] :
+Selon The Plant List            (5 avril 2022) :
 Oxalis abercornensis R. Knuth
 Oxalis acetosella L.
 Oxalis adenodes Sond.
@@ -1557,7 +1577,7 @@
 Oxalis zamorana Lourteig
 Oxalis zeekoevleyensis R. Knuth
 Oxalis zeyheri Sond.
-Selon Tropicos                                           (5 avril 2022)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 avril 2022) (Attention liste brute contenant possiblement des synonymes) :
 Oxalis abercornensis R. Knuth
 Oxalis aberrans Reiche
 Oxalis abyssinica (Steud. ex A. Rich.) Walp.
@@ -1818,7 +1838,7 @@
 Oxalis conzattiana (Rose) R. Knuth
 Oxalis copiosa F. Bolus
 Oxalis coquimbana Phil.
-Oxalis</t>
+Oxalis coralleoide</t>
         </is>
       </c>
     </row>
@@ -1846,9 +1866,11 @@
           <t>Trivia</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dernière chanson de l'album Rest (2017) de Charlotte Gainsbourg s'intitule les Oxalis[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dernière chanson de l'album Rest (2017) de Charlotte Gainsbourg s'intitule les Oxalis.
 </t>
         </is>
       </c>
